--- a/etl/data/input/Datos_carga_anual_previo.xlsx
+++ b/etl/data/input/Datos_carga_anual_previo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="9" r:id="rId1"/>
@@ -1651,7 +1651,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
@@ -1987,7 +1987,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
+      <selection activeCell="A24" sqref="A24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -3609,8 +3609,8 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
